--- a/biology/Zoologie/Dilophus_febrilis/Dilophus_febrilis.xlsx
+++ b/biology/Zoologie/Dilophus_febrilis/Dilophus_febrilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilophus febrilis est une espèce d'insectes diptères nématocères de la famille des Bibionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette mouche, longue d'environ 7 mm se différencie des espèces du genre Bibio par une couronne de petites épines à l'extrémité distale des tibias antérieurs. Contrairement à la femelle, le mâle possède de très grands yeux, ses ailes sont claires, les ailes de la femelle sont enfumées ; tous deux présentent une tache noire sur le bord de l'aile[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mouche, longue d'environ 7 mm se différencie des espèces du genre Bibio par une couronne de petites épines à l'extrémité distale des tibias antérieurs. Contrairement à la femelle, le mâle possède de très grands yeux, ses ailes sont claires, les ailes de la femelle sont enfumées ; tous deux présentent une tache noire sur le bord de l'aile.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe, de l'Espagne à l'Ukraine[2], Royaume-Uni compris[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe, de l'Espagne à l'Ukraine, Royaume-Uni compris.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes, au vol mou, sont visibles de mars à octobre. Ils butinent les fleurs en particulier d'arbres fruitiers. Les larves vivent dans le sol où elles se nourrissent de racines de poacées (graminées).
 </t>
